--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.471482</v>
+        <v>1.890575333333333</v>
       </c>
       <c r="H2">
-        <v>4.414446</v>
+        <v>5.671726</v>
       </c>
       <c r="I2">
-        <v>0.004946458467382327</v>
+        <v>0.006346320422088561</v>
       </c>
       <c r="J2">
-        <v>0.004946458467382326</v>
+        <v>0.00634632042208856</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>172.228967652366</v>
+        <v>145.7435512724244</v>
       </c>
       <c r="R2">
-        <v>1550.060708871294</v>
+        <v>1311.69196145182</v>
       </c>
       <c r="S2">
-        <v>0.001605306637657813</v>
+        <v>0.001525539084742954</v>
       </c>
       <c r="T2">
-        <v>0.001605306637657812</v>
+        <v>0.001525539084742954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.471482</v>
+        <v>1.890575333333333</v>
       </c>
       <c r="H3">
-        <v>4.414446</v>
+        <v>5.671726</v>
       </c>
       <c r="I3">
-        <v>0.004946458467382327</v>
+        <v>0.006346320422088561</v>
       </c>
       <c r="J3">
-        <v>0.004946458467382326</v>
+        <v>0.00634632042208856</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>149.473196495328</v>
+        <v>192.0447129414791</v>
       </c>
       <c r="R3">
-        <v>1345.258768457952</v>
+        <v>1728.402416473312</v>
       </c>
       <c r="S3">
-        <v>0.001393205322871156</v>
+        <v>0.002010186475165844</v>
       </c>
       <c r="T3">
-        <v>0.001393205322871156</v>
+        <v>0.002010186475165843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.471482</v>
+        <v>1.890575333333333</v>
       </c>
       <c r="H4">
-        <v>4.414446</v>
+        <v>5.671726</v>
       </c>
       <c r="I4">
-        <v>0.004946458467382327</v>
+        <v>0.006346320422088561</v>
       </c>
       <c r="J4">
-        <v>0.004946458467382326</v>
+        <v>0.00634632042208856</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>208.989864021792</v>
+        <v>268.5123445861298</v>
       </c>
       <c r="R4">
-        <v>1880.908776196128</v>
+        <v>2416.611101275168</v>
       </c>
       <c r="S4">
-        <v>0.001947946506853358</v>
+        <v>0.002810594862179763</v>
       </c>
       <c r="T4">
-        <v>0.001947946506853358</v>
+        <v>0.002810594862179763</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>794.313995</v>
       </c>
       <c r="I5">
-        <v>0.8900417371348598</v>
+        <v>0.8887896079640043</v>
       </c>
       <c r="J5">
-        <v>0.8900417371348596</v>
+        <v>0.8887896079640044</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>30990.04480985306</v>
+        <v>20411.09575051524</v>
       </c>
       <c r="R5">
-        <v>278910.4032886776</v>
+        <v>183699.8617546372</v>
       </c>
       <c r="S5">
-        <v>0.2888510876694367</v>
+        <v>0.2136487279059001</v>
       </c>
       <c r="T5">
-        <v>0.2888510876694367</v>
+        <v>0.2136487279059001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>794.313995</v>
       </c>
       <c r="I6">
-        <v>0.8900417371348598</v>
+        <v>0.8887896079640043</v>
       </c>
       <c r="J6">
-        <v>0.8900417371348596</v>
+        <v>0.8887896079640044</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>26895.48175549638</v>
@@ -818,10 +818,10 @@
         <v>242059.3357994674</v>
       </c>
       <c r="S6">
-        <v>0.2506866061709789</v>
+        <v>0.2815226352232018</v>
       </c>
       <c r="T6">
-        <v>0.2506866061709788</v>
+        <v>0.2815226352232018</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>794.313995</v>
       </c>
       <c r="I7">
-        <v>0.8900417371348598</v>
+        <v>0.8887896079640043</v>
       </c>
       <c r="J7">
-        <v>0.8900417371348596</v>
+        <v>0.8887896079640044</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>37604.6221441278</v>
@@ -880,10 +880,10 @@
         <v>338441.5992971502</v>
       </c>
       <c r="S7">
-        <v>0.3505040432944441</v>
+        <v>0.3936182448349024</v>
       </c>
       <c r="T7">
-        <v>0.3505040432944441</v>
+        <v>0.3936182448349025</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>93.717342</v>
       </c>
       <c r="I8">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="J8">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>3656.368446637182</v>
+        <v>2408.20840761566</v>
       </c>
       <c r="R8">
-        <v>32907.31601973464</v>
+        <v>21673.87566854094</v>
       </c>
       <c r="S8">
-        <v>0.03408017023568695</v>
+        <v>0.02520740038203933</v>
       </c>
       <c r="T8">
-        <v>0.03408017023568694</v>
+        <v>0.02520740038203933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>93.717342</v>
       </c>
       <c r="I9">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="J9">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>3173.270366380256</v>
@@ -1004,10 +1004,10 @@
         <v>28559.43329742231</v>
       </c>
       <c r="S9">
-        <v>0.029577324022026</v>
+        <v>0.03321552087969199</v>
       </c>
       <c r="T9">
-        <v>0.02957732402202599</v>
+        <v>0.03321552087969198</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>93.717342</v>
       </c>
       <c r="I10">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="J10">
-        <v>0.105011804397758</v>
+        <v>0.104864071613907</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>4436.791063037985</v>
@@ -1066,10 +1066,10 @@
         <v>39931.11956734186</v>
       </c>
       <c r="S10">
-        <v>0.0413543101400451</v>
+        <v>0.04644115035217564</v>
       </c>
       <c r="T10">
-        <v>0.04135431014004508</v>
+        <v>0.04644115035217564</v>
       </c>
     </row>
   </sheetData>
